--- a/komehyo_chanel.xlsx
+++ b/komehyo_chanel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,56 +486,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/6ce/2600046135681_1_b.jpg</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>【未使用品】シャネル AB8356 ネックレス</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランド財布・小物 &gt; アクセサリー &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>260-004-613-5681</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>￥75,000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>AB8356</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>WHITE(ホワイト) / GOLD(ゴールド)金具</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>長さ: 42-48cmトップ 横x縦: 2.3cmx2.8cm</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-004-613-5681/</t>
         </is>
@@ -544,56 +549,61 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/85c/2410031555642_1_b.jpg</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>シャネル CHANEL BELT</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ファッション雑貨 &gt; ベルト &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>241-003-155-5642</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>￥60,000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>B13P</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-155-5642/</t>
         </is>
@@ -602,60 +612,65 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/d91/2410031628520_1_b.jpg</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>シャネル CHANEL カーディガン</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; カーディガン &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>241-003-162-8520</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>￥90,000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>P59185K07741</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>カシミヤ100%</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>ネイビー系</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-162-8520/</t>
         </is>
@@ -664,60 +679,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/bd6/2410031596942_1_b.jpg</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>シャネル CHANEL カーディガン</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; カーディガン &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>241-003-159-6942</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>￥100,000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>P49643K06257</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>カシミヤ100%</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>ブルー系</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-159-6942/</t>
         </is>
@@ -726,56 +746,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/6e3/2410031639175_1_b.jpg</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>シャネル CHANEL サンダル</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; サンダル &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>241-003-163-9175</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>￥55,000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>G34876X01000</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>ホワイト系</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>36.5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-163-9175/</t>
         </is>
@@ -784,52 +809,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/cc0/2700037180451_1_b.jpg</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>シャネル CHANEL サンダル</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; サンダル &gt; その他 &gt; </t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; サ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>270-003-718-0451</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>￥55,000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>35.5</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/270-003-718-0451/</t>
         </is>
@@ -838,56 +868,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/a58/2410031399253_1_b.jpg</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>シャネル CHANEL シャツ</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; シャツ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>241-003-139-9253</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>￥130,000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>P63241V48585</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>ホワイト系 透け感</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-139-9253/</t>
         </is>
@@ -896,52 +931,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/121/2410031507566_1_b.jpg</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>シャネル CHANEL シューズ</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; その他 &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>241-003-150-7566</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>￥43,000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>ブラック系 ホワイト系</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-150-7566/</t>
         </is>
@@ -950,56 +990,61 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/971/2410031584000_1_b.jpg</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>シャネル CHANEL シューズ</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; その他 &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>241-003-158-4000</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>￥65,000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>G27680</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>35.5</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-158-4000/</t>
         </is>
@@ -1008,56 +1053,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/1a7/2410031336890_1_b.jpg</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>シャネル CHANEL シューズ</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; その他 &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>241-003-133-6890</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>￥65,000</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>G36048</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>ピンク系</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-133-6890/</t>
         </is>
@@ -1066,56 +1116,61 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/573/2410031567324_1_b.jpg</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>シャネル CHANEL ジーンズ</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; ジーンズ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>241-003-156-7324</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>￥35,000</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>P32786V23296</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>ネイビー系</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-156-7324/</t>
         </is>
@@ -1124,56 +1179,61 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/bef/2700037238121_1_b.jpg</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>シャネル CHANEL ジーンズ</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; ジーンズ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>270-003-723-8121</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>￥35,000</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>P32197V22734</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>ブルー系</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/270-003-723-8121/</t>
         </is>
@@ -1182,56 +1242,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/9c6/2410031509089_1_b.jpg</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>シャネル CHANEL ジーンズ</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; ジーンズ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>241-003-150-9089</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>￥75,000</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>P57262V42411</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>ネイビー系</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-150-9089/</t>
         </is>
@@ -1240,56 +1305,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/cf5/2410031285754_1_b.jpg</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>シャネル CHANEL ジーンズ</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; ジーンズ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>241-003-128-5754</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>￥80,000</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>P62012V47627</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>グレー系</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-128-5754/</t>
         </is>
@@ -1298,56 +1368,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/9fa/2410031620920_1_b.jpg</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>シャネル CHANEL スカート</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; スカート &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>241-003-162-0920</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>￥14,000</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>P22251V13148</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-162-0920/</t>
         </is>
@@ -1356,56 +1431,61 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/c61/2410031620968_1_b.jpg</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>シャネル CHANEL スカート</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; スカート &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>241-003-162-0968</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>￥25,000</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>P28856V18723</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-162-0968/</t>
         </is>
@@ -1414,56 +1494,61 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/489/2700037238008_1_b.jpg</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>シャネル CHANEL スカート</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; スカート &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>270-003-723-8008</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>￥35,000</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>P32751K00776</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/270-003-723-8008/</t>
         </is>
@@ -1472,56 +1557,61 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/fb6/2410031628551_1_b.jpg</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>シャネル CHANEL スカート</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; スカート &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>241-003-162-8551</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>￥43,000</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>P53154V39572</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-162-8551/</t>
         </is>
@@ -1530,60 +1620,65 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/597/2410031536832_1_b.jpg</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>シャネル CHANEL スカート</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; スカート &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>241-003-153-6832</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>￥130,000</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>P70443K10046</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>シルク</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>ブラック系 透け感</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-153-6832/</t>
         </is>
@@ -1592,56 +1687,61 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/9d0/2410031578801_1_b.jpg</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>シャネル CHANEL ニット</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; ニット &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>241-003-157-8801</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>￥55,000</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>P35345K02061</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>ブラック系 透け感</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-157-8801/</t>
         </is>
@@ -1650,60 +1750,65 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/5a8/2410031628513_1_b.jpg</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>シャネル CHANEL ニット</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; ニット &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>241-003-162-8513</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>￥65,000</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>P59839K07828</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>カシミヤ</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>ネイビー系 透け感</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-162-8513/</t>
         </is>
@@ -1712,60 +1817,65 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/a7f/2410031179824_1_b.jpg</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>シャネル CHANEL ニット</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; ニット &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>241-003-117-9824</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>￥75,000</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>P31853K00570</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>カシミヤ100%</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-117-9824/</t>
         </is>
@@ -1774,56 +1884,61 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/d50/2410031336494_1_b.jpg</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>シャネル CHANEL ニット</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; ニット &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>241-003-133-6494</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>￥90,000</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>P56070K07345</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>ホワイト系 ボーダー 透け感</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-133-6494/</t>
         </is>
@@ -1832,60 +1947,65 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/5a9/2410031499038_1_b.jpg</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>シャネル CHANEL ニット</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; ニット &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>241-003-149-9038</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>￥100,000</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>P44576K04637</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>カシミヤ100%</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>パープル系</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-149-9038/</t>
         </is>
@@ -1894,56 +2014,61 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/1d1/2410031536825_1_b.jpg</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>シャネル CHANEL ニット</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; ニット &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>241-003-153-6825</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>￥120,000</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>P71479K10223</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>ホワイト系 透け感</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-153-6825/</t>
         </is>
@@ -1952,60 +2077,65 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/280/2410031579396_1_b.jpg</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>シャネル CHANEL パンツ</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; パンツ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>241-003-157-9396</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>￥33,000</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>P20807V12106</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>カシミヤ混</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-157-9396/</t>
         </is>
@@ -2014,56 +2144,61 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/c90/2700037238114_1_b.jpg</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>シャネル CHANEL パンツ</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; パンツ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>270-003-723-8114</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>￥45,000</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>P50636V37871</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>ゴールド系</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/270-003-723-8114/</t>
         </is>
@@ -2072,56 +2207,61 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/9ad/2700037238183_1_b.jpg</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>シャネル CHANEL パンツ</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; パンツ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>270-003-723-8183</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>￥60,000</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>P52309V39188</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>パープル系</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/270-003-723-8183/</t>
         </is>
@@ -2130,56 +2270,61 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/627/2410031536849_1_b.jpg</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>シャネル CHANEL パンツ</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ボトムス &gt; パンツ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>241-003-153-6849</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>￥100,000</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>P64459V60620</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-153-6849/</t>
         </is>
@@ -2188,56 +2333,61 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/8ff/2410031621170_1_b.jpg</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>シャネル CHANEL パンプス</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; パンプス &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>241-003-162-1170</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>￥33,000</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>G25870</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>ホワイト系</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>34.5</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-162-1170/</t>
         </is>
@@ -2246,56 +2396,61 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/edb/2410031217137_1_b.jpg</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>シャネル CHANEL ブルゾン</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; アウター・ジャケット &gt; ブルゾン &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>241-003-121-7137</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>￥160,000</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>P50941V37652</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>ブラック系 透け感</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>心斎橋店</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-121-7137/</t>
         </is>
@@ -2304,52 +2459,57 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/c65/2410031593620_1_b.jpg</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>シャネル CHANEL ブーツ</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; シューズ &gt; ブーツ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>241-003-159-3620</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>￥60,000</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>36.5</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-159-3620/</t>
         </is>
@@ -2358,60 +2518,65 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/1c4/2410031567058_1_b.jpg</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>シャネル CHANEL レザージャケット</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; アウター・ジャケット &gt; レザージャケット・コート &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>241-003-156-7058</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>￥280,000</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>P53369C00299</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>ラム</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-156-7058/</t>
         </is>
@@ -2420,60 +2585,65 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/345/2410031628537_1_b.jpg</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>シャネル CHANEL ロングカーディガン</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; トップス &gt; カーディガン &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>241-003-162-8537</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>￥160,000</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>P46786K05901</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>カシミヤ100%</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>グレー系</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-162-8537/</t>
         </is>
@@ -2482,56 +2652,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/3b6/2410031614905_1_b.jpg</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>シャネル CHANEL ワンピース</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ワンピース &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>241-003-161-4905</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>￥75,000</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>P47975K06152</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>ブラック系 ラメ感</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L36" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-161-4905/</t>
         </is>
@@ -2540,56 +2715,61 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/8a8/2600040949529_1_b.jpg</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>シャネル CHANEL ワンピース</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ワンピース &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>260-004-094-9529</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>￥90,000</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>P43547V31615</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>ブラック系</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L37" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-004-094-9529/</t>
         </is>
@@ -2598,60 +2778,65 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/f64/2410031599226_1_b.jpg</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>シャネル CHANEL ワンピース</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; レディースファッション &gt; ワンピース &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>241-003-159-9226</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>￥110,000</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>P44445K04654</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>カシミヤ100%</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>パープル系</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>`ＷＥＢ店</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/241-003-159-9226/</t>
         </is>
@@ -2660,56 +2845,61 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/551/2600048080422_1_b.jpg</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>シャネル ネックレス</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランド財布・小物 &gt; アクセサリー &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>260-004-808-0422</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>￥120,000</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>フェイクパール</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>BLACK+MULTICOLOR(ブラック+マルチカラー) / GOLD(ゴールド)金具</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>長さ: 118-121cmモチーフ 横x縦: 3.6cmx3.2cm</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-004-808-0422/</t>
         </is>
@@ -2718,60 +2908,65 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/fc2/2600037178222_1_b.jpg</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>シャネル J12 クロマティック41mm H2934 セラミック 自動巻</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; 時計メンズ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>260-003-717-8222</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>￥340,000</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>H2934</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>ケース: セラミックブレス: セラミック</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>文字盤カラー: グレー/アラビア</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>ケース径約: 41mm腕周り最大約: 19.5cm</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>メンズ</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-003-717-8222/</t>
         </is>
@@ -2780,60 +2975,65 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/887/2600045527418_1_b.jpg</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>シャネル プルミエール GP Mサイズ H0001 GP クォーツ</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; 時計レディース &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>260-004-552-7418</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>￥240,000</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>H0001</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>ケース: ゴールドメッキブレス: ゴールドメッキ</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>文字盤カラー: ブラック</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>ケース径約: 20x26mm腕周り最大約: 14.5cm</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>名古屋本店</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L41" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-004-552-7418/</t>
         </is>
@@ -2842,52 +3042,57 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/38a/2600060386540_1_b.jpg</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>シャネル マトラッセ ラージ リング</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランドジュエリー &gt; リング &gt; マトラッセ &gt; </t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>260-006-038-6540</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>￥130,000</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>J1651</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
         <is>
           <t>6.0(46)号</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>KOMEHYO SHINJUKU WOMEN</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L42" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-006-038-6540/</t>
         </is>
@@ -2896,60 +3101,65 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/f37/2600047457836_1_b.jpg</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>【未使用品】シャネル 1112 ショルダーバッグ</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランドバッグ &gt; ショルダーバッグ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>260-004-745-7836</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>￥1,400,000</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>1112</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>キャビアスキン(グレインドカーフ)</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>BLACK+BORDEAUX(ブラック+ボルドー) / GOLD(ゴールド)金具</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 25cmx15cmx6cmストラップ: 53cm</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>梅田店</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L43" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-004-745-7836/</t>
         </is>
@@ -2958,60 +3168,65 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/72f/2600035356158_1_b.jpg</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>【未使用品】シャネル AS3738 ショルダーバッグ</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランドバッグ &gt; ショルダーバッグ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>260-003-535-6158</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>￥700,000</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>AS3738</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>ラム</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>BLACK(ブラック) / MAT GOLD(マットゴールド)金具</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 15.5cmx12.5cmx4.5cmストラップ: 118cm</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>神戸三宮店</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-003-535-6158/</t>
         </is>
@@ -3020,60 +3235,65 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/150/2600059484639_1_b.jpg</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>【未使用品】シャネル タイムレスクラシック ライン AP0214 カードケース</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランド財布・小物 &gt; カードケース・パスケース &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>260-005-948-4639</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>￥90,000</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>AP0214</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>キャビアスキン(グレインドカーフ)</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>BLACK(ブラック) / GOLD(ゴールド)金具</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 11cmx7cmx2cm</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>名駅店</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-005-948-4639/</t>
         </is>
@@ -3082,60 +3302,65 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/0f3/2600047541115_1_b.jpg</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>【未使用品】シャネル ドーヴィル ライン 92749 ボストンバッグ</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランドバッグ &gt; ハンドバッグ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>260-004-754-1115</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>￥420,000</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>92749</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>ミックスファイバー</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>PINK(ピンク) / SILVER(シルバー)金具</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 27cmx17cmx12cm持ち手: 28.5cmストラップ: 77cm</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>梅田店</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>メンズレディース</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-004-754-1115/</t>
         </is>
@@ -3144,60 +3369,65 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/1cb/2600047505407_1_b.jpg</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>【未使用品】シャネル ボーイシャネル ライン 84432 財布</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランド財布・小物 &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>260-004-750-5407</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>￥140,000</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>84432</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>キャビアスキン(グレインドカーフ)</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>LIGHT GREEN(ライト グリーン) / GOLD(ゴールド)金具</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 10.5cmx7cmx3cm</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>梅田店</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L47" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-004-750-5407/</t>
         </is>
@@ -3206,60 +3436,65 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/d12/2600059484738_1_b.jpg</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>シャネル 1804 バッグ</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランドバッグ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>260-005-948-4738</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>￥220,000</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>1804</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>キャビアスキン(グレインドカーフ)</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>BEIGE(ベージュ) / GOLD(ゴールド)金具</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 30cmx24cmx15cm持ち手: 41cm</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>名駅店</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L48" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-005-948-4738/</t>
         </is>
@@ -3268,60 +3503,65 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/1d3/2600039808516_1_b.jpg</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>シャネル 20994 ショルダーバッグ</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランドバッグ &gt; ショルダーバッグ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>260-003-980-8516</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>￥270,000</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>20994</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>キャビアスキン(グレインドカーフ)</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>BLACK(ブラック) / GOLD(ゴールド)金具</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 25cmx23cmx9cm持ち手: 54.5cm</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>名駅店</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-003-980-8516/</t>
         </is>
@@ -3330,60 +3570,65 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/d86/2600057659169_1_b.jpg</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>シャネル 84442 財布</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランド財布・小物 &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>260-005-765-9169</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>￥120,000</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>84442</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>カーフ</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>PINK(ピンク) / AGED METAL(エイジド メタル）金具</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 19cmx10cmx2cm</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>名駅店</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-005-765-9169/</t>
         </is>
@@ -3392,60 +3637,65 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>https://img.komehyo.jp/contents/images/goods/b3f/2600035356554_1_b.jpg</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>シャネル 92990 バッグ</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">トップ &gt; シャネル &gt; ブランドバッグ &gt; その他 &gt; </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>260-003-535-6554</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>￥650,000</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>92990</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>キャビアスキン(グレインドカーフ)</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>YELLOW(イエロー） / MAT GOLD(マットゴールド)金具</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>横x縦x幅（マチ）: 22cmx14cmx9.5cm持ち手: 21cmストラップ: 95cm</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>梅田店</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>レディース</t>
-        </is>
-      </c>
       <c r="L51" t="inlineStr">
+        <is>
+          <t>レディース</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>https://komehyo.jp/product/260-003-535-6554/</t>
         </is>
